--- a/Sprint Backlog/SprintBacklog2nd.xlsx
+++ b/Sprint Backlog/SprintBacklog2nd.xlsx
@@ -22,7 +22,6 @@
     <definedName name="colorList3">Sheet1!$N$3:$N$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -188,6 +187,15 @@
   </si>
   <si>
     <t>Ewan</t>
+  </si>
+  <si>
+    <t>Blob changes in the application</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Mark/Kari</t>
   </si>
 </sst>
 </file>
@@ -274,7 +282,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -947,7 +1011,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1027,6 +1091,27 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="N5" s="6" t="s">
         <v>48</v>
       </c>
@@ -1047,6 +1132,27 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1059,10 +1165,31 @@
         <v>49</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1081,6 +1208,12 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1098,6 +1231,27 @@
       <c r="E9">
         <v>0</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1245,10 +1399,31 @@
         <v>49</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1262,10 +1437,31 @@
         <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23">
         <v>6</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1275,10 +1471,16 @@
       <c r="B24">
         <v>12</v>
       </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
       <c r="D24" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
         <v>12</v>
       </c>
     </row>
@@ -1295,6 +1497,29 @@
       <c r="E25">
         <v>8</v>
       </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -1350,6 +1575,9 @@
       <c r="E30">
         <v>12</v>
       </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1364,6 +1592,9 @@
       <c r="E31">
         <v>4</v>
       </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1381,8 +1612,11 @@
       <c r="E32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1395,8 +1629,11 @@
       <c r="E33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1409,8 +1646,11 @@
       <c r="E34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1423,8 +1663,11 @@
       <c r="E35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1437,8 +1680,11 @@
       <c r="E36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1451,8 +1697,11 @@
       <c r="E37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1465,8 +1714,11 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1479,8 +1731,11 @@
       <c r="E39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1493,8 +1748,11 @@
       <c r="E40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1507,8 +1765,11 @@
       <c r="E41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1521,8 +1782,11 @@
       <c r="E42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1535,8 +1799,11 @@
       <c r="E43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1549,223 +1816,242 @@
       <c r="E44">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="59" priority="54" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="58" priority="55" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="51" priority="46" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="47" priority="42" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="35" priority="30" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D41">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D41">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D44">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="To Do">
+      <formula>NOT(ISERROR(SEARCH("To Do",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D9 D13:D16 D22:D25 D30:D44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D9 D13:D16 D22:D26 D30:D44">
       <formula1>colorList3</formula1>
     </dataValidation>
   </dataValidations>

--- a/Sprint Backlog/SprintBacklog2nd.xlsx
+++ b/Sprint Backlog/SprintBacklog2nd.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -282,35 +282,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <fill>
         <patternFill>
@@ -1010,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1275,9 +1247,7 @@
       <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1307,6 +1277,12 @@
       <c r="E13">
         <v>4</v>
       </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1321,6 +1297,12 @@
       <c r="E14">
         <v>5</v>
       </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1335,6 +1317,12 @@
       <c r="E15">
         <v>2</v>
       </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1349,6 +1337,12 @@
       <c r="E16">
         <v>4</v>
       </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1443,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1483,6 +1477,9 @@
       <c r="F24">
         <v>12</v>
       </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1500,6 +1497,9 @@
       <c r="F25">
         <v>8</v>
       </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1520,6 +1520,9 @@
       <c r="F26">
         <v>6</v>
       </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -1578,6 +1581,9 @@
       <c r="F30">
         <v>12</v>
       </c>
+      <c r="G30">
+        <v>12</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1595,6 +1601,9 @@
       <c r="F31">
         <v>4</v>
       </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1615,8 +1624,11 @@
       <c r="F32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1632,8 +1644,11 @@
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1649,8 +1664,11 @@
       <c r="F34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1666,8 +1684,11 @@
       <c r="F35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1683,8 +1704,11 @@
       <c r="F36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1700,8 +1724,11 @@
       <c r="F37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1717,8 +1744,11 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1734,8 +1764,11 @@
       <c r="F39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1751,8 +1784,11 @@
       <c r="F40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1768,8 +1804,11 @@
       <c r="F41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1785,8 +1824,11 @@
       <c r="F42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1802,8 +1844,11 @@
       <c r="F43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1819,234 +1864,253 @@
       <c r="F44">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="B46">
+        <f>SUM(B5:B44)</f>
+        <v>121</v>
+      </c>
+      <c r="E46">
+        <f>SUM(E5:E44)</f>
+        <v>101</v>
+      </c>
+      <c r="F46">
+        <f>SUM(F5:F44)</f>
+        <v>98</v>
+      </c>
+      <c r="G46">
+        <f>SUM(G5:G44)</f>
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="59" priority="54" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="55" priority="54" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="55" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="56" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="51" priority="50" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="51" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="52" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D9">
-    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="51" priority="46" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="48" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="containsText" dxfId="47" priority="42" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="43" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="44" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="containsText" dxfId="43" priority="38" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="39" priority="34" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="35" priority="34" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="containsText" dxfId="35" priority="30" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="containsText" dxfId="31" priority="26" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="27" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D33">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="containsText" dxfId="27" priority="22" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="23" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="19" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="20" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D37">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D41">
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:D41">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D44">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D44">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="To Do">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="To Do">
       <formula>NOT(ISERROR(SEARCH("To Do",D26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Sprint Backlog/SprintBacklog2nd.xlsx
+++ b/Sprint Backlog/SprintBacklog2nd.xlsx
@@ -983,7 +983,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,6 +1189,9 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1291,6 +1294,9 @@
       <c r="H13">
         <v>4</v>
       </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1314,6 +1320,9 @@
       <c r="H14">
         <v>5</v>
       </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1337,6 +1346,9 @@
       <c r="H15">
         <v>2</v>
       </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1360,6 +1372,9 @@
       <c r="H16">
         <v>4</v>
       </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1500,6 +1515,9 @@
       <c r="H24">
         <v>12</v>
       </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1523,6 +1541,9 @@
       <c r="H25">
         <v>8</v>
       </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1625,6 +1646,9 @@
       <c r="H30">
         <v>6</v>
       </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1648,6 +1672,9 @@
       <c r="H31">
         <v>4</v>
       </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1672,7 +1699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1694,8 +1721,11 @@
       <c r="H33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1717,8 +1747,11 @@
       <c r="H34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1738,7 +1771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1763,8 +1796,11 @@
       <c r="H36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1786,8 +1822,11 @@
       <c r="H37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1809,8 +1848,11 @@
       <c r="H38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1832,8 +1874,11 @@
       <c r="H39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1855,8 +1900,11 @@
       <c r="H40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1878,8 +1926,11 @@
       <c r="H41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1904,8 +1955,11 @@
       <c r="H42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1927,8 +1981,11 @@
       <c r="H43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1953,8 +2010,11 @@
       <c r="H44">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1977,6 +2037,10 @@
       <c r="H46">
         <f>SUM(H5:H44)</f>
         <v>79</v>
+      </c>
+      <c r="I46">
+        <f>SUM(I5:I44)</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint Backlog/SprintBacklog2nd.xlsx
+++ b/Sprint Backlog/SprintBacklog2nd.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Mark/Kari</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -982,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1191,6 +1194,15 @@
       </c>
       <c r="I8">
         <v>4</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1297,6 +1309,9 @@
       <c r="I13">
         <v>2</v>
       </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1323,6 +1338,9 @@
       <c r="I14">
         <v>5</v>
       </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1349,6 +1367,9 @@
       <c r="I15">
         <v>2</v>
       </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1375,6 +1396,9 @@
       <c r="I16">
         <v>4</v>
       </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1518,6 +1542,9 @@
       <c r="I24">
         <v>10</v>
       </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1526,8 +1553,11 @@
       <c r="B25">
         <v>8</v>
       </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
       <c r="D25" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -1543,6 +1573,9 @@
       </c>
       <c r="I25">
         <v>8</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1649,6 +1682,9 @@
       <c r="I30">
         <v>6</v>
       </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1675,6 +1711,9 @@
       <c r="I31">
         <v>4</v>
       </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1699,7 +1738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1724,8 +1763,11 @@
       <c r="I33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1750,8 +1792,11 @@
       <c r="I34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1771,7 +1816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1799,8 +1844,11 @@
       <c r="I36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1825,8 +1873,11 @@
       <c r="I37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1851,8 +1902,11 @@
       <c r="I38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1877,8 +1931,11 @@
       <c r="I39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1903,8 +1960,11 @@
       <c r="I40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1929,8 +1989,11 @@
       <c r="I41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1958,8 +2021,11 @@
       <c r="I42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1984,8 +2050,11 @@
       <c r="I43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2013,8 +2082,11 @@
       <c r="I44">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2041,6 +2113,10 @@
       <c r="I46">
         <f>SUM(I5:I44)</f>
         <v>78</v>
+      </c>
+      <c r="J46">
+        <f>SUM(J5:J44)</f>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint Backlog/SprintBacklog2nd.xlsx
+++ b/Sprint Backlog/SprintBacklog2nd.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,7 +1292,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1311,6 +1311,12 @@
       </c>
       <c r="J13">
         <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1320,8 +1326,11 @@
       <c r="B14">
         <v>5</v>
       </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1340,6 +1349,12 @@
       </c>
       <c r="J14">
         <v>5</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1349,8 +1364,11 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1369,6 +1387,12 @@
       </c>
       <c r="J15">
         <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1378,8 +1402,11 @@
       <c r="B16">
         <v>4</v>
       </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1398,6 +1425,12 @@
       </c>
       <c r="J16">
         <v>4</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1525,7 +1558,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1544,6 +1577,12 @@
       </c>
       <c r="J24">
         <v>6</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1557,7 +1596,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -1576,6 +1615,12 @@
       </c>
       <c r="J25">
         <v>4</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1685,6 +1730,9 @@
       <c r="J30">
         <v>6</v>
       </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1737,8 +1785,17 @@
       <c r="G32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1766,8 +1823,11 @@
       <c r="J33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1795,8 +1855,11 @@
       <c r="J34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1816,7 +1879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1847,8 +1910,11 @@
       <c r="J36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1876,8 +1942,11 @@
       <c r="J37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1905,8 +1974,11 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1934,8 +2006,11 @@
       <c r="J39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1963,14 +2038,20 @@
       <c r="J40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
       <c r="D41" s="7" t="s">
         <v>46</v>
       </c>
@@ -1992,8 +2073,11 @@
       <c r="J41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2024,14 +2108,20 @@
       <c r="J42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>46</v>
       </c>
@@ -2053,8 +2143,11 @@
       <c r="J43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2178,11 @@
       <c r="J44">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2095,28 +2191,32 @@
         <v>121</v>
       </c>
       <c r="E46">
-        <f>SUM(E5:E44)</f>
+        <f t="shared" ref="E46:J46" si="0">SUM(E5:E44)</f>
         <v>101</v>
       </c>
       <c r="F46">
-        <f>SUM(F5:F44)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="G46">
-        <f>SUM(G5:G44)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="H46">
-        <f>SUM(H5:H44)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="I46">
-        <f>SUM(I5:I44)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="J46">
-        <f>SUM(J5:J44)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
+      </c>
+      <c r="K46">
+        <f>SUM(K5:K44)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
